--- a/Immigration Facility Counts/COVID-19_Immigration_Detention_Facilities.xlsx
+++ b/Immigration Facility Counts/COVID-19_Immigration_Detention_Facilities.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,12 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Folkston ICE Processing Center</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Georgia</t>
+          <t>Columbia Regional Care Center</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,52 +502,19 @@
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ICE-dedicated</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Charlton County</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>GeoGroup</t>
-        </is>
-      </c>
       <c r="I3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="P3" s="2">
-        <v>44018</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>https://www.ice.gov/coronavirus</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>https://www.miamiherald.com/news/local/immigration/article242485081.html</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Irwin County Detention Center</t>
+          <t>Folkston ICE Processing Center</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -572,20 +534,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Non ICE-dedicated</t>
+          <t>ICE-dedicated</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Irwin County</t>
+          <t>Charlton County</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>GeoGroup</t>
         </is>
       </c>
       <c r="I4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -594,18 +561,23 @@
         </is>
       </c>
       <c r="P4" s="2">
-        <v>44022</v>
+        <v>44033</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
           <t>https://www.ice.gov/coronavirus</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>https://www.miamiherald.com/news/local/immigration/article242485081.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Stewart Detention Center</t>
+          <t>Irwin County Detention Center</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -625,37 +597,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ICE-dedicated</t>
+          <t>Non ICE-dedicated</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stewart County</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>CoreCivic</t>
+          <t>Irwin County</t>
         </is>
       </c>
       <c r="I5">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>19</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M5">
-        <v>1</v>
+          <t>None reported yet</t>
+        </is>
       </c>
       <c r="P5" s="2">
-        <v>44022</v>
+        <v>44033</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -666,12 +630,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bristol County House of Corrections</t>
+          <t>Stewart Detention Center</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Massachusetts</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -681,55 +645,53 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Non ICE-dedicated</t>
+          <t>ICE-dedicated</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bristol County</t>
+          <t>Stewart County</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CoreCivic</t>
         </is>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>124</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>In person visitation suspended.</t>
-        </is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M6">
+        <v>1</v>
       </c>
       <c r="P6" s="2">
-        <v>44012</v>
+        <v>44033</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
           <t>https://www.ice.gov/coronavirus</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>May - violent clash over coronavirus tests. Detainees who exhibited symptoms refused to be taken to another unit to be tested; asked to bee tested in their own unit to avoid cross-contamination. https://www.nbcnews.com/news/us-news/violent-clash-over-coronavirus-tests-ice-detention-center-massachusetts-3-n1198726</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Franklin County House of Corrections</t>
+          <t>Bristol County House of Corrections</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -754,40 +716,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Franklin County</t>
+          <t>Bristol County</t>
         </is>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>None reported yet</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>In person visitation suspended.</t>
         </is>
       </c>
       <c r="P7" s="2">
-        <v>44006</v>
+        <v>44012</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>https://www.ice.gov/coronavirus</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>May - violent clash over coronavirus tests. Detainees who exhibited symptoms refused to be taken to another unit to be tested; asked to bee tested in their own unit to avoid cross-contamination. https://www.nbcnews.com/news/us-news/violent-clash-over-coronavirus-tests-ice-detention-center-massachusetts-3-n1198726</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Strafford County House of Corrections</t>
+          <t>Franklin County House of Corrections</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>New Hampshire</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -807,18 +779,15 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Strafford County</t>
-        </is>
-      </c>
-      <c r="H8">
-        <v>2</v>
+          <t>Franklin County</t>
+        </is>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -827,28 +796,23 @@
         </is>
       </c>
       <c r="P8" s="2">
-        <v>43985</v>
+        <v>44033</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>https://www.seacoastonline.com/news/20200519/strafford-county-leaders-defend-jail-against-aclu-lawsuit</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>2nd Case: https://www.unionleader.com/news/health/coronavirus/second-ice-detainee-tests-positive-for-covid-19-at-strafford-county-jail/article_79cdc3cb-1a47-56d3-bc6b-57883b226ec0.html</t>
+          <t>https://www.ice.gov/coronavirus</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Wyatt Detention Center</t>
+          <t>Strafford County House of Corrections</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>New Hampshire</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -868,16 +832,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Providence County</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Central Falls Detention Facility Corporation</t>
-        </is>
+          <t>Strafford County</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -890,23 +852,28 @@
         </is>
       </c>
       <c r="P9" s="2">
-        <v>44006</v>
+        <v>43985</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>https://www.ice.gov/coronavirus</t>
+          <t>https://www.seacoastonline.com/news/20200519/strafford-county-leaders-defend-jail-against-aclu-lawsuit</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>2nd Case: https://www.unionleader.com/news/health/coronavirus/second-ice-detainee-tests-positive-for-covid-19-at-strafford-county-jail/article_79cdc3cb-1a47-56d3-bc6b-57883b226ec0.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Buffalo Federal Detention Facility / Buffalo (Batavia) Service Processing Center</t>
+          <t>Wyatt Detention Center</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -916,17 +883,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ICE-dedicated</t>
+          <t>Non ICE-dedicated</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Genesee County</t>
+          <t>Providence County</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Central Falls Detention Facility Corporation</t>
         </is>
       </c>
       <c r="I10">
@@ -934,11 +906,16 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>None reported yet</t>
         </is>
       </c>
       <c r="P10" s="2">
-        <v>43952</v>
+        <v>44006</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -949,12 +926,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lincoln County Detention Center</t>
+          <t>Buffalo Federal Detention Facility / Buffalo (Batavia) Service Processing Center</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Missouri</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -964,17 +941,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Non ICE-dedicated</t>
+          <t>ICE-dedicated</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lincoln County</t>
+          <t>Genesee County</t>
         </is>
       </c>
       <c r="I11">
@@ -982,16 +959,11 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
+          <t>49</t>
         </is>
       </c>
       <c r="P11" s="2">
-        <v>43998</v>
+        <v>43952</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1002,12 +974,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pulaski County Detention Center</t>
+          <t>Lincoln County Detention Center</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Illinois</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1027,15 +999,15 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Pulaski County</t>
+          <t>Lincoln County</t>
         </is>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1044,7 +1016,7 @@
         </is>
       </c>
       <c r="P12" s="2">
-        <v>44018</v>
+        <v>43998</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1055,12 +1027,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bluebonnet Detention Facility</t>
+          <t>Pulaski County Detention Center</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1070,7 +1042,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1080,20 +1052,15 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hockley County</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>MTC</t>
+          <t>Pulaski County</t>
         </is>
       </c>
       <c r="I13">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1102,23 +1069,18 @@
         </is>
       </c>
       <c r="P13" s="2">
-        <v>44018</v>
+        <v>44027</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
           <t>https://www.ice.gov/coronavirus</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>ICE protocol for transfers: Detainees are medically screened and cleared for travel, issued a mask, and in some cases, have their temperatures taken, according to court filings and ICE statements. But it does not routinely test prior to moving detainees from one place to the next.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Johnson County Law Enforcement Center</t>
+          <t>Bluebonnet Detention Facility</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1143,15 +1105,20 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Johnson County</t>
+          <t>Hockley County</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>MTC</t>
         </is>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>291</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1160,13 +1127,23 @@
         </is>
       </c>
       <c r="P14" s="2">
-        <v>43985</v>
+        <v>44033</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>https://www.ice.gov/coronavirus</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>ICE protocol for transfers: Detainees are medically screened and cleared for travel, issued a mask, and in some cases, have their temperatures taken, according to court filings and ICE statements. But it does not routinely test prior to moving detainees from one place to the next.</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Prairieland Detention Center</t>
+          <t>Johnson County Law Enforcement Center</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1186,7 +1163,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICE-dedicated</t>
+          <t>Non ICE-dedicated</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1194,17 +1171,12 @@
           <t>Johnson County</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>CoreCivic</t>
-        </is>
-      </c>
       <c r="I15">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1213,18 +1185,13 @@
         </is>
       </c>
       <c r="P15" s="2">
-        <v>44019</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>https://www.ice.gov/coronavirus</t>
-        </is>
+        <v>43985</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Moore Detention Center</t>
+          <t>Prairieland Detention Center</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1242,16 +1209,36 @@
           <t>Dallas</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ICE-dedicated</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Johnson County</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>CoreCivic</t>
+        </is>
+      </c>
       <c r="I16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>None reported yet</t>
         </is>
       </c>
       <c r="P16" s="2">
-        <v>44006</v>
+        <v>44033</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1262,7 +1249,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rolling Plains Detention Facility</t>
+          <t>Moore Detention Center</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1280,36 +1267,16 @@
           <t>Dallas</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ICE-dedicated</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Haskell County</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>LaSalle Corrections</t>
-        </is>
-      </c>
       <c r="I17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
+          <t>20</t>
         </is>
       </c>
       <c r="P17" s="2">
-        <v>44022</v>
+        <v>44033</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1320,125 +1287,140 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Rolling Plains Detention Facility</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ICE-dedicated</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Haskell County</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>LaSalle Corrections</t>
+        </is>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>None reported yet</t>
+        </is>
+      </c>
+      <c r="P18" s="2">
+        <v>44022</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>https://www.ice.gov/coronavirus</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Aurora Contract Detention Facility</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Colorado</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Denver</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>ICE-dedicated</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Arapahoe County</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>GeoGroup</t>
         </is>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>11</v>
       </c>
-      <c r="I18">
-        <v>10</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P18" s="2">
-        <v>44019</v>
-      </c>
-      <c r="Q18" t="inlineStr">
+      <c r="P19" s="2">
+        <v>44033</v>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>https://www.ice.gov/coronavirus; https://www.coloradoindependent.com/2020/05/05/colorado-coronavirus-first-cases/; https://www.denverpost.com/2020/05/21/ice-covid19-confirmed-cases-aurora/; https://www.newsbreak.com/colorado/aurora/news/0PBMBuY6/nine-more-ice-detainees-inaurora-test-positive-for-covid-19</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t xml:space="preserve">ICE released eight medically vulnerable detainees on April 15. 
 </t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Calhoun County Correction Center</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Michigan</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Detroit</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Calhoun County</t>
-        </is>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="P19" s="2">
-        <v>44000</v>
-      </c>
-    </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Morrow County Correctional Facility</t>
+          <t>Calhoun County Correction Center</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ohio</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1451,22 +1433,17 @@
           <t>Detroit</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Non ICE-dedicated</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Morrow County</t>
+          <t>Calhoun County</t>
         </is>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1475,23 +1452,18 @@
         </is>
       </c>
       <c r="P20" s="2">
-        <v>44006</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>"Although ICE has reported the number of people who have tested positive for COVID-19 at specific facilities, it has not provided information as to how many people at each facility have been tested — critical information to understand how widespread the virus is."</t>
-        </is>
+        <v>44033</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Saint Clair County Jail</t>
+          <t>Morrow County Correctional Facility</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Michigan</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1511,15 +1483,15 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>St. Clair County</t>
+          <t>Morrow County</t>
         </is>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>48</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1528,23 +1500,23 @@
         </is>
       </c>
       <c r="P21" s="2">
-        <v>44012</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>https://www.ice.gov/coronavirus</t>
+        <v>44006</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>"Although ICE has reported the number of people who have tested positive for COVID-19 at specific facilities, it has not provided information as to how many people at each facility have been tested — critical information to understand how widespread the virus is."</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>El Paso Processing Center</t>
+          <t>Saint Clair County Jail</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1554,34 +1526,34 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>El Paso</t>
+          <t>Detroit</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ICE-dedicated</t>
+          <t>Non ICE-dedicated</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>El Paso County</t>
+          <t>St. Clair County</t>
         </is>
       </c>
       <c r="I22">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>None reported yet</t>
         </is>
       </c>
       <c r="P22" s="2">
-        <v>44019</v>
+        <v>44012</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1592,12 +1564,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Otero County Processing Center</t>
+          <t>El Paso Processing Center</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>New Mexico</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1617,43 +1589,35 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Otero County</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>MTC</t>
-        </is>
-      </c>
-      <c r="H23">
-        <v>92</v>
+          <t>El Paso County</t>
+        </is>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>155</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>None reported yet</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P23" s="2">
-        <v>44019</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>ACLU lawsuit</t>
+        <v>44033</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>https://www.ice.gov/coronavirus</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Torrance County Detention Center</t>
+          <t>Otero County Processing Center</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1661,22 +1625,40 @@
           <t>New Mexico</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>El Paso</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ICE-dedicated</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Torrance County</t>
-        </is>
+          <t>Otero County</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>MTC</t>
+        </is>
+      </c>
+      <c r="H24">
+        <v>92</v>
       </c>
       <c r="I24">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>142</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1685,71 +1667,61 @@
         </is>
       </c>
       <c r="P24" s="2">
-        <v>44012</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>https://www.ice.gov/coronavirus</t>
+        <v>44019</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>ACLU lawsuit</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Houston Contract Detention Facility</t>
+          <t>Torrance County Detention Center</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Texas</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Houston</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>ICE-dedicated</t>
+          <t>El Paso</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Montgomery County</t>
+          <t>Torrance County</t>
         </is>
       </c>
       <c r="I25">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>55</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>None reported yet</t>
         </is>
       </c>
       <c r="P25" s="2">
-        <v>44008</v>
+        <v>44033</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>https://www.ice.gov/coronavirus; https://www.texasobserver.org/ice-immigrant-detention-centers-coronavirus-positive/</t>
+          <t>https://www.ice.gov/coronavirus</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IAH (Polk) Secure Adult Detention Facility</t>
+          <t>Houston Contract Detention Facility</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1774,35 +1746,35 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Polk County</t>
+          <t>Montgomery County</t>
         </is>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>124</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>None reported yet</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P26" s="2">
-        <v>43964</v>
+        <v>44033</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>https://www.ice.gov/coronavirus</t>
+          <t>https://www.ice.gov/coronavirus; https://www.texasobserver.org/ice-immigrant-detention-centers-coronavirus-positive/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Joe Corley Detention Center</t>
+          <t>IAH (Polk) Secure Adult Detention Facility</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1827,20 +1799,15 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Montgomery County</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>GeoGroup</t>
+          <t>Polk County</t>
         </is>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1848,11 +1815,8 @@
           <t>None reported yet</t>
         </is>
       </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
       <c r="P27" s="2">
-        <v>44001</v>
+        <v>43964</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -1863,7 +1827,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Montgomery Processing Center</t>
+          <t>Joe Corley Detention Center</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1897,39 +1861,39 @@
         </is>
       </c>
       <c r="I28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="K28">
-        <v>3</v>
+          <t>47</t>
+        </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>None reported yet</t>
         </is>
       </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
       <c r="P28" s="2">
-        <v>44022</v>
+        <v>44033</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>https://www.ice.gov/coronavirus       https://www.texasobserver.org/ice-immigrant-detention-centers-coronavirus-positive/</t>
+          <t>https://www.ice.gov/coronavirus</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Adelanto ICE Processing Center</t>
+          <t>Montgomery Processing Center</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1939,7 +1903,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1949,7 +1913,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>San Bernardino County</t>
+          <t>Montgomery County</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1958,31 +1922,34 @@
         </is>
       </c>
       <c r="I29">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="K29">
+        <v>3</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>None reported yet</t>
         </is>
       </c>
       <c r="P29" s="2">
-        <v>44019</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Source for facility response: https://www.desertsun.com/story/news/politics/immigration/2020/05/29/ice-first-covid-19-case-adelanto-immigration-detention-center/5287103002/</t>
+        <v>44033</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>https://www.ice.gov/coronavirus       https://www.texasobserver.org/ice-immigrant-detention-centers-coronavirus-positive/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LA (Los Angeles) Staging</t>
+          <t>Adelanto ICE Processing Center</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2000,27 +1967,52 @@
           <t>Los Angeles</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ICE-dedicated</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>San Bernardino County</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>GeoGroup</t>
+        </is>
+      </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
       <c r="P30" s="2">
-        <v>43982</v>
+        <v>44027</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Source for facility response: https://www.desertsun.com/story/news/politics/immigration/2020/05/29/ice-first-covid-19-case-adelanto-immigration-detention-center/5287103002/</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Broward Transitional Center</t>
+          <t>LA (Los Angeles) Staging</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>California</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2030,55 +2022,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Miami</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ICE-dedicated</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Broward County</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>GeoGroup</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="I31">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P31" s="2">
-        <v>44019</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>https://www.ice.gov/coronavirus</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Interesting: In May DHS confirmed that the 16 individuals who tested positive had just been transferred by ICE from Krome to BTC. This came after a judge's order that ICE release hundreds of detainees in South Florida. Some have claimed that ICE has not complied with this order, but rather has moved detainees around.</t>
-        </is>
+        <v>43982</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Glades County Detention Center</t>
+          <t>Baker County Detention Center</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2086,42 +2048,37 @@
           <t>Florida</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>Miami</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Baker County</t>
+        </is>
+      </c>
       <c r="I32">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P32" s="2">
-        <v>44019</v>
+        <v>44033</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
           <t>https://www.ice.gov/coronavirus</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>DHS is using a 15 minute rapid test (Abbott ID NOW). The test has been scrutinized by the FDA, stating that the test may return false negative results. ICE stated that detainees tested at intake are getting the LabCorp SARS-CoV-2 nucleic amplification assay test.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Krome Detention Center</t>
+          <t>Broward Transitional Center</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2146,15 +2103,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Miami-Dade</t>
+          <t>Broward County</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>GeoGroup</t>
         </is>
       </c>
       <c r="I33">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>35</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2163,23 +2125,28 @@
         </is>
       </c>
       <c r="P33" s="2">
-        <v>44022</v>
+        <v>44033</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>https://www.miamiherald.com/news/local/immigration/article241791511.html; https://www.ice.gov/coronavirus; https://thehill.com/homenews/administration/493896-eight-ice-staffers-at-miami-detention-center-infected-with-covid-19</t>
+          <t>https://www.ice.gov/coronavirus</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>In May a judge ordered release of detainees because social distancing is "practically impossible" in the facility. Goal was to reduce to 75% within two weeks. https://www.npr.org/sections/coronavirus-live-updates/2020/05/01/848681749/federal-judge-orders-ice-to-release-detainees-at-3-florida-facilities</t>
+          <t>Interesting: In May DHS confirmed that the 16 individuals who tested positive had just been transferred by ICE from Krome to BTC. This came after a judge's order that ICE release hundreds of detainees in South Florida. Some have claimed that ICE has not complied with this order, but rather has moved detainees around.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Wakulla County Jail</t>
+          <t>Glades County Detention Center</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Florida</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2193,23 +2160,39 @@
         </is>
       </c>
       <c r="I34">
+        <v>11</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="M34">
         <v>1</v>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="P34" s="2">
+        <v>44033</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>https://www.ice.gov/coronavirus</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>DHS is using a 15 minute rapid test (Abbott ID NOW). The test has been scrutinized by the FDA, stating that the test may return false negative results. ICE stated that detainees tested at intake are getting the LabCorp SARS-CoV-2 nucleic amplification assay test.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Adams County Correctional Center</t>
+          <t>Krome Detention Center</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mississippi</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2219,25 +2202,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>New Orleans</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Non ICE-dedicated</t>
+          <t>ICE-dedicated</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Adams County</t>
+          <t>Miami-Dade</t>
         </is>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>91</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2245,29 +2228,24 @@
           <t>None reported yet</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>All social visitation suspended as of 3/13/2020.</t>
-        </is>
-      </c>
       <c r="P35" s="2">
-        <v>44012</v>
+        <v>44033</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>https://www.ice.gov/coronavirus</t>
+          <t>https://www.miamiherald.com/news/local/immigration/article241791511.html; https://www.ice.gov/coronavirus; https://thehill.com/homenews/administration/493896-eight-ice-staffers-at-miami-detention-center-infected-with-covid-19</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>In May a judge ordered release of detainees because social distancing is "practically impossible" in the facility. Goal was to reduce to 75% within two weeks. https://www.npr.org/sections/coronavirus-live-updates/2020/05/01/848681749/federal-judge-orders-ice-to-release-detainees-at-3-florida-facilities</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Alexandria Staging Facility</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Louisiana</t>
+          <t>Wakulla County Jail</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2277,55 +2255,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>New Orleans</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>ICE-dedicated</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Rapides Parish</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>GeoGroup</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="I36">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="P36" s="2">
-        <v>44022</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>https://www.ice.gov/coronavirus</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Catahoula Correctional Center</t>
+          <t>Adams County Correctional Center</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Louisiana</t>
+          <t>Mississippi</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2345,15 +2295,15 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Catahoula Parish</t>
+          <t>Adams County</t>
         </is>
       </c>
       <c r="I37">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>36</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2361,8 +2311,13 @@
           <t>None reported yet</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>All social visitation suspended as of 3/13/2020.</t>
+        </is>
+      </c>
       <c r="P37" s="2">
-        <v>44019</v>
+        <v>44033</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2373,7 +2328,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Etowah County Jail (Etowah County Detention Center)</t>
+          <t>Alexandria Staging Facility</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2393,17 +2348,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Non ICE-dedicated</t>
+          <t>ICE-dedicated</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Etowah County</t>
+          <t>Rapides Parish</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Etowah County Sheriff's Department</t>
+          <t>GeoGroup</t>
         </is>
       </c>
       <c r="I38">
@@ -2411,16 +2366,16 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>92</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P38" s="2">
-        <v>44022</v>
+        <v>44033</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -2431,7 +2386,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Jackson Parish Correctional</t>
+          <t>Catahoula Correctional Center</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2439,27 +2394,52 @@
           <t>Louisiana</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>New Orleans</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Non ICE-dedicated</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Catahoula Parish</t>
+        </is>
+      </c>
       <c r="I39">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>None reported yet</t>
         </is>
       </c>
       <c r="P39" s="2">
-        <v>44008</v>
+        <v>44033</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>https://www.ice.gov/coronavirus</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>La Salle ICE Processing Center - Olla</t>
+          <t>Etowah County Jail (Etowah County Detention Center)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2479,35 +2459,45 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ICE-dedicated</t>
+          <t>Non ICE-dedicated</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>La Salle Parish (Olla)</t>
+          <t>Etowah County</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Etowah County Sheriff's Department</t>
         </is>
       </c>
       <c r="I40">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>None reported yet</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P40" s="2">
-        <v>44019</v>
+        <v>44033</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>https://www.ice.gov/coronavirus</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LaSalle ICE Processing Center - Jena</t>
+          <t>Jackson Parish Correctional</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2515,62 +2505,27 @@
           <t>Louisiana</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>New Orleans</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ICE-dedicated</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>La Salle Parish (Jena)</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>GeoGroup</t>
-        </is>
-      </c>
       <c r="I41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P41" s="2">
         <v>44008</v>
       </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>https://www.ice.gov/coronavirus</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Geo Group Response: https://www.geogroup.com/Portals/0/GEO_Coronavirus_Statement.pdf</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pine Prairie ICE Processing Center</t>
+          <t>La Salle ICE Processing Center - Olla</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2590,25 +2545,20 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Non ICE-dedicated</t>
+          <t>ICE-dedicated</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Evangeline Parish</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>GeoGroup</t>
+          <t>La Salle Parish (Olla)</t>
         </is>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2617,18 +2567,13 @@
         </is>
       </c>
       <c r="P42" s="2">
-        <v>44022</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>https://www.ice.gov/coronavirus</t>
-        </is>
+        <v>44033</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Richwood Correctional Center</t>
+          <t>LaSalle ICE Processing Center - Jena</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2648,45 +2593,50 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Non ICE-dedicated</t>
+          <t>ICE-dedicated</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ouachita Parish</t>
+          <t>La Salle Parish (Jena)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>LaSalle Corrections</t>
+          <t>GeoGroup</t>
         </is>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>None reported yet</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P43" s="2">
-        <v>43990</v>
+        <v>44033</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
           <t>https://www.ice.gov/coronavirus</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Geo Group Response: https://www.geogroup.com/Portals/0/GEO_Coronavirus_Statement.pdf</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>River Correctional Center</t>
+          <t>Pine Prairie ICE Processing Center</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2711,20 +2661,20 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Concordia Parish</t>
+          <t>Evangeline Parish</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>LaSalle Corrections</t>
+          <t>GeoGroup</t>
         </is>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>65</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2733,7 +2683,7 @@
         </is>
       </c>
       <c r="P44" s="2">
-        <v>44006</v>
+        <v>44033</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -2744,7 +2694,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Winn Correctional Center</t>
+          <t>Richwood Correctional Center</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2769,7 +2719,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Winn Parish</t>
+          <t>Ouachita Parish</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2778,11 +2728,11 @@
         </is>
       </c>
       <c r="I45">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -2791,7 +2741,7 @@
         </is>
       </c>
       <c r="P45" s="2">
-        <v>44022</v>
+        <v>44033</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -2802,12 +2752,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bergen County Jail</t>
+          <t>River Correctional Center</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>New Jersey</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2817,7 +2767,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>New Orleans</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2827,24 +2777,29 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bergen County</t>
+          <t>Concordia Parish</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>LaSalle Corrections</t>
         </is>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>None reported yet</t>
         </is>
       </c>
       <c r="P46" s="2">
-        <v>43955</v>
+        <v>44026</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -2855,12 +2810,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Hudson County Jail</t>
+          <t>Winn Correctional Center</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>New Jersey</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2870,7 +2825,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>New Orleans</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2880,38 +2835,40 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Hudson County</t>
+          <t>Winn Parish</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>LaSalle Corrections</t>
         </is>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>137</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N47">
-        <v>4</v>
+          <t>None reported yet</t>
+        </is>
       </c>
       <c r="P47" s="2">
-        <v>43970</v>
+        <v>44033</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>https://gothamist.com/news/ice-quietly-releases-hundreds-local-immigrants-covid-19; https://www.npr.org/sections/coronavirus-live-updates/2020/04/16/835886346/ice-releases-hundreds-as-coronavirus-spreads-in-detention-centers; https://www.ice.gov/coronavirus</t>
+          <t>https://www.ice.gov/coronavirus</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Elizabeth Detention Center</t>
+          <t>Bergen County Jail</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2926,22 +2883,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ICE-dedicated</t>
+          <t>Non ICE-dedicated</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Union County</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>CoreCivic</t>
+          <t>Bergen County</t>
         </is>
       </c>
       <c r="I48">
@@ -2949,12 +2901,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P48" s="2">
@@ -2969,7 +2921,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Essex County Correctional Facility</t>
+          <t>Hudson County Jail</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2984,7 +2936,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2994,15 +2946,15 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Essex County</t>
+          <t>Hudson County</t>
         </is>
       </c>
       <c r="I49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3010,24 +2962,27 @@
           <t>1</t>
         </is>
       </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
       <c r="P49" s="2">
-        <v>43978</v>
+        <v>43970</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>https://www.ice.gov/coronavirus; https://gothamist.com/news/ice-quietly-releases-hundreds-local-immigrants-covid-19</t>
+          <t>https://gothamist.com/news/ice-quietly-releases-hundreds-local-immigrants-covid-19; https://www.npr.org/sections/coronavirus-live-updates/2020/04/16/835886346/ice-releases-hundreds-as-coronavirus-spreads-in-detention-centers; https://www.ice.gov/coronavirus</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Pike County Correctional Facility</t>
+          <t>Elizabeth Detention Center</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pennsylvania</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3037,17 +2992,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Newark</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Non ICE-dedicated</t>
+          <t>ICE-dedicated</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pike County</t>
+          <t>Union County</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>CoreCivic</t>
         </is>
       </c>
       <c r="I50">
@@ -3055,16 +3015,16 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>None reported yet</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P50" s="2">
-        <v>44008</v>
+        <v>43955</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -3075,12 +3035,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>York County Prison</t>
+          <t>Essex County Correctional Facility</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Pennsylvania</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3090,7 +3050,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Newark</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3100,45 +3060,40 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>York County</t>
+          <t>Essex County</t>
         </is>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
       <c r="P51" s="2">
-        <v>43956</v>
+        <v>44033</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>https://www.ice.gov/coronavirus</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Sources for facility response: https://www.fox43.com/article/news/local/coronavirus-covid19-immigrants-released-york-county-prison/521-4e6beab9-c6fb-4340-9c82-307585e09bbe; https://www.yorkdispatch.com/story/news/local/2020/04/04/ice-detainee-york-county-prison-tests-positive-covid-19/2947308001/; https://www.penncapital-star.com/covid-19/ice-detainee-was-sick-with-covid-19-for-days-before-being-removed-from-york-co-jail-witnesses-claim/</t>
+          <t>https://www.ice.gov/coronavirus; https://gothamist.com/news/ice-quietly-releases-hundreds-local-immigrants-covid-19</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Eloy Federal Contract Facility</t>
+          <t>Pike County Correctional Facility</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Arizona</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3148,69 +3103,50 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ICE-dedicated</t>
+          <t>Non ICE-dedicated</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Pinal County</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>CoreCivic</t>
-        </is>
-      </c>
-      <c r="H52">
-        <v>4</v>
+          <t>Pike County</t>
+        </is>
       </c>
       <c r="I52">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="K52">
-        <v>128</v>
+          <t>22</t>
+        </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N52">
-        <v>1</v>
+          <t>None reported yet</t>
+        </is>
       </c>
       <c r="P52" s="2">
-        <v>44022</v>
+        <v>44008</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
           <t>https://www.ice.gov/coronavirus</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>https://www.azcentral.com/story/news/politics/immigration/2020/06/15/coronavirus-cases-arizona-eloy-detention-center-guard-covid-19-deaths/3193118001/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Florence Detention Center</t>
+          <t>York County Prison</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Arizona</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3220,201 +3156,255 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ICE-dedicated</t>
+          <t>Non ICE-dedicated</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Pinal County</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>CoreCivic</t>
-        </is>
-      </c>
-      <c r="H53">
-        <v>15</v>
+          <t>York County</t>
+        </is>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>None reported yet</t>
         </is>
       </c>
       <c r="P53" s="2">
-        <v>44022</v>
+        <v>43956</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
           <t>https://www.ice.gov/coronavirus</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Sources for facility response: https://www.fox43.com/article/news/local/coronavirus-covid19-immigrants-released-york-county-prison/521-4e6beab9-c6fb-4340-9c82-307585e09bbe; https://www.yorkdispatch.com/story/news/local/2020/04/04/ice-detainee-york-county-prison-tests-positive-covid-19/2947308001/; https://www.penncapital-star.com/covid-19/ice-detainee-was-sick-with-covid-19-for-days-before-being-removed-from-york-co-jail-witnesses-claim/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>Eloy Federal Contract Facility</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Arizona</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ICE-dedicated</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Pinal County</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>CoreCivic</t>
+        </is>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>35</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="K54">
+        <v>128</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="P54" s="2">
+        <v>44033</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>https://www.ice.gov/coronavirus</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>https://www.azcentral.com/story/news/politics/immigration/2020/06/15/coronavirus-cases-arizona-eloy-detention-center-guard-covid-19-deaths/3193118001/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Florence Detention Center</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Arizona</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ICE-dedicated</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Pinal County</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>CoreCivic</t>
+        </is>
+      </c>
+      <c r="H55">
+        <v>15</v>
+      </c>
+      <c r="I55">
+        <v>12</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P55" s="2">
+        <v>44033</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>https://www.ice.gov/coronavirus</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>La Palma Correctional Facility</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Arizona</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>Phoenix</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>ICE-dedicated</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Pinal County</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>CoreCivic</t>
         </is>
       </c>
-      <c r="H54">
+      <c r="H56">
         <v>78</v>
       </c>
-      <c r="I54">
-        <v>8</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="P54" s="2">
-        <v>44019</v>
-      </c>
-      <c r="Q54" t="inlineStr">
+      <c r="I56">
+        <v>6</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>None reported yet</t>
+        </is>
+      </c>
+      <c r="P56" s="2">
+        <v>44033</v>
+      </c>
+      <c r="Q56" t="inlineStr">
         <is>
           <t>https://www.ice.gov/coronavirus
 https://kvoa.com/news/local-news/2020/06/05/nearly-100-confirmed-cases-of-covid-19-reported-at-arizona-ice-detention-centers/</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Nevada Southern Detention Center</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Nevada</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Salt Lake City</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Non ICE-dedicated</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Nye County</t>
-        </is>
-      </c>
-      <c r="I55">
-        <v>8</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="P55" s="2">
-        <v>44022</v>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>https://www.ice.gov/coronavirus</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Nye County Jail</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Utah</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Salt Lake City</t>
-        </is>
-      </c>
-      <c r="I56">
-        <v>26</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="P56" s="2">
-        <v>44022</v>
-      </c>
-    </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Washington County Jail</t>
+          <t>Nevada Southern Detention Center</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Utah</t>
+          <t>Nevada</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3422,78 +3412,88 @@
           <t>Salt Lake City</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Non ICE-dedicated</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Nye County</t>
+        </is>
+      </c>
       <c r="I57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>None reported yet</t>
         </is>
       </c>
       <c r="P57" s="2">
-        <v>44022</v>
+        <v>44027</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>https://www.ice.gov/coronavirus</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>El Valle Detention Facility</t>
+          <t>Nye County Jail</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Texas</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
+          <t>Utah</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>San Antonio</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Bexar</t>
+          <t>Salt Lake City</t>
         </is>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>32</t>
         </is>
       </c>
       <c r="P58" s="2">
-        <v>44019</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Karnes County Residential Center</t>
+          <t>Washington County Jail</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Utah</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Salt Lake City</t>
         </is>
       </c>
       <c r="I59">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P59" s="2">
@@ -3503,180 +3503,140 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>El Valle Detention Facility</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Bexar</t>
+        </is>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P60" s="2">
+        <v>44027</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Karnes County Residential Center</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="I61">
+        <v>22</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="P61" s="2">
+        <v>44033</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>Port Isabel Service Processing Center</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>Texas</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>San Antonio</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>ICE-dedicated</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Cameron County</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Ahtna Support and Training Services</t>
         </is>
       </c>
-      <c r="H60">
+      <c r="H62">
         <v>216</v>
       </c>
-      <c r="I60">
-        <v>6</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="I62">
+        <v>13</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="P60" s="2">
-        <v>44022</v>
-      </c>
-      <c r="Q60" t="inlineStr">
+      <c r="P62" s="2">
+        <v>44033</v>
+      </c>
+      <c r="Q62" t="inlineStr">
         <is>
           <t>https://www.texasobserver.org/ice-immigrant-detention-centers-coronavirus-positive/
 https://www.brownsvilleherald.com/2020/06/05/covid-19-cases-continue-rise-port-isabel-detention-center/</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>South Texas ICE Processing Center</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>San Antonio</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>ICE-dedicated</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Frio County</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>GeoGroup</t>
-        </is>
-      </c>
-      <c r="I61">
-        <v>26</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="P61" s="2">
-        <v>44022</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>https://www.ice.gov/coronavirus</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Webb County Detention Center</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>San Antonio</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Webb County</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>CoreCivic</t>
-        </is>
-      </c>
-      <c r="I62">
-        <v>8</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="P62" s="2">
-        <v>44022</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>https://www.ice.gov/coronavirus</t>
-        </is>
-      </c>
-    </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Imperial Regional Detention Facility</t>
+          <t>South Texas ICE Processing Center</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3686,7 +3646,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3696,20 +3656,20 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Imperial</t>
+          <t>Frio County</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>MTC</t>
+          <t>GeoGroup</t>
         </is>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>129</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -3718,7 +3678,7 @@
         </is>
       </c>
       <c r="P63" s="2">
-        <v>43999</v>
+        <v>44033</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -3729,188 +3689,203 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>Webb County Detention Center</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Webb County</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>CoreCivic</t>
+        </is>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>None reported yet</t>
+        </is>
+      </c>
+      <c r="P64" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>https://www.ice.gov/coronavirus</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Imperial Regional Detention Facility</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>San Diego</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ICE-dedicated</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Imperial</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>MTC</t>
+        </is>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>None reported yet</t>
+        </is>
+      </c>
+      <c r="P65" s="2">
+        <v>43999</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>https://www.ice.gov/coronavirus</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>Otay Mesa Detention Center</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>California</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>San Diego</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>ICE-dedicated</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>San Diego County</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>CoreCivic</t>
         </is>
       </c>
-      <c r="H64">
+      <c r="H66">
         <v>167</v>
       </c>
-      <c r="I64">
-        <v>4</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>168</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="M64">
+      <c r="M66">
         <v>1</v>
       </c>
-      <c r="P64" s="2">
-        <v>44019</v>
-      </c>
-      <c r="Q64" t="inlineStr">
+      <c r="P66" s="2">
+        <v>44033</v>
+      </c>
+      <c r="Q66" t="inlineStr">
         <is>
           <t>https://www.ice.gov/coronavirus; https://www.latimes.com/california/story/2020-05-06/first-ice-detainee-dies-coronavirus-otay-mesa-detention-center?fbclid=IwAR3gwwlIdG22z5McSitqdEUbvRcSVf63j3u9mV-oWEJkOOreFpUWD08E-m8; https://www.sandiegouniontribune.com/news/watchdog/story/2020-04-30/guards-sue-corecivic-over-allegedly-dangerous-workplace-amid-covid-19?fbclid=IwAR2gnwEE4YyhKN5-LzLVRcqA0PeAF-iB0GyMATWFo58XjpZYXbHIcaWuosw
 https://theintercept.com/2020/05/24/ice-detention-coronavirus-death/</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>San Luis Regional Detention Center</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>San Diego</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Non ICE-dedicated</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>LaSalle Corrections</t>
-        </is>
-      </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P65" s="2">
-        <v>44019</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Tacoma ICE Processing Center/Northwest Detention Center</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Washington</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Seattle</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>ICE-dedicated</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Pierce County</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>GeoGroup</t>
-        </is>
-      </c>
-      <c r="I66">
-        <v>2</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="P66" s="2">
-        <v>44008</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>https://www.kuow.org/stories/recovered-positive-at-tacoma-immigration-center</t>
-        </is>
-      </c>
-    </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Polk County Jail</t>
+          <t>San Luis Regional Detention Center</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Iowa</t>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>St. Paul</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Polk County</t>
+          <t>San Diego</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Non ICE-dedicated</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>LaSalle Corrections</t>
         </is>
       </c>
       <c r="I67">
@@ -3918,32 +3893,22 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P67" s="2">
-        <v>44022</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>https://www.ice.gov/coronavirus</t>
-        </is>
+        <v>44033</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Caroline Detention Facility</t>
+          <t>Tacoma ICE Processing Center/Northwest Detention Center</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3953,7 +3918,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Washington D.C.</t>
+          <t>Seattle</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3963,15 +3928,20 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Caroline County</t>
+          <t>Pierce County</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>GeoGroup</t>
         </is>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -3980,51 +3950,41 @@
         </is>
       </c>
       <c r="P68" s="2">
-        <v>43959</v>
+        <v>44033</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>https://www.ice.gov/coronavirus</t>
+          <t>https://www.kuow.org/stories/recovered-positive-at-tacoma-immigration-center</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Farmville Detention Center/Immigration Centers of America</t>
+          <t>Polk County Jail</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Virginia</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
+          <t>Iowa</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Washington D.C.</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>ICE-dedicated</t>
+          <t>St. Paul</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Prince Edward County</t>
+          <t>Polk County</t>
         </is>
       </c>
       <c r="I69">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4044,27 +4004,65 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>South Louisiana Correctional Center</t>
+          <t>Caroline Detention Facility</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Washington D.C.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ICE-dedicated</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Caroline County</t>
         </is>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>None reported yet</t>
+        </is>
+      </c>
+      <c r="P70" s="2">
+        <v>43959</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>https://www.ice.gov/coronavirus</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>Farmville Detention Center/Immigration Centers of America</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Idaho</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4072,24 +4070,27 @@
           <t>DHS/ICE</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Washington D.C.</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Non ICE-dedicated</t>
+          <t>ICE-dedicated</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Ada County</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Ada County Sheriff's Office</t>
-        </is>
+          <t>Prince Edward County</t>
+        </is>
+      </c>
+      <c r="I71">
+        <v>268</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>315</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4098,71 +4099,46 @@
         </is>
       </c>
       <c r="P71" s="2">
-        <v>43952</v>
+        <v>44026</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>https://www.ice.gov/coronavirus</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Adams County Jail</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Colorado</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Non ICE-dedicated</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Adams County</t>
+          <t>South Louisiana Correctional Center</t>
         </is>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>On-site jail visits discontinued until further notice.</t>
+          <t>20</t>
         </is>
       </c>
       <c r="P72" s="2">
-        <v>44019</v>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>Sources for facility response: https://www.adamssheriff.org/coronavirus-community-resources</t>
+        <v>44033</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>https://www.ice.gov/coronavirus</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Butler County Jail</t>
+          <t>Ada County Jail</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ohio</t>
+          <t>Idaho</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4177,37 +4153,37 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Butler County</t>
+          <t>Ada County</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Ada County Sheriff's Office</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>None reported yet</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>None reported yet</t>
         </is>
       </c>
       <c r="P73" s="2">
         <v>43952</v>
       </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>https://www.ice.gov/coronavirus</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CCA Florence Correctional Center</t>
+          <t>Adams County Jail</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Arizona</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4215,37 +4191,52 @@
           <t>DHS/ICE</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Non ICE-dedicated</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Maricopa County</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>CoreCivic</t>
+          <t>Adams County</t>
         </is>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>None reported yet</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>On-site jail visits discontinued until further notice.</t>
         </is>
       </c>
       <c r="P74" s="2">
-        <v>44001</v>
+        <v>44019</v>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Sources for facility response: https://www.adamssheriff.org/coronavirus-community-resources</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Central Arizona Detention Center</t>
+          <t>Butler County Jail</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Arizona</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4260,12 +4251,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Pinal County</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>CoreCivic</t>
+          <t>Butler County</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4275,22 +4261,27 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>None reported yet</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P75" s="2">
         <v>43952</v>
       </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>https://www.ice.gov/coronavirus</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Denver Contract Detention Facility</t>
+          <t>CCA Florence Correctional Center</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Arizona</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4298,22 +4289,32 @@
           <t>DHS/ICE</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Maricopa County</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>CoreCivic</t>
+        </is>
+      </c>
       <c r="I76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P76" s="2">
-        <v>43982</v>
+        <v>44027</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Federal Correctional Institute (FCI)</t>
+          <t>Central Arizona Detention Center</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4333,12 +4334,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Maricopa County</t>
+          <t>Pinal County</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>BOP</t>
+          <t>CoreCivic</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4358,162 +4359,139 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>Denver Contract Detention Facility</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
+      <c r="I78">
+        <v>4</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P78" s="2">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Federal Correctional Institute (FCI)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Arizona</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Non ICE-dedicated</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Maricopa County</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>BOP</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>None reported yet</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>None reported yet</t>
+        </is>
+      </c>
+      <c r="P79" s="2">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
           <t>Florence Services Processing Center
 (Florence Staging Facility)</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Arizona</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>ICE-dedicated</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>Pinal County</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="M78">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>None reported yet</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>None reported yet</t>
+        </is>
+      </c>
+      <c r="M80">
         <v>1</v>
-      </c>
-      <c r="P78" s="2">
-        <v>43952</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>http://www.tucsonsentinel.com/local/report/040519_ice_detainee_death/man-dies-immigration-detention-facility-florence/</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>Death reported from a presumptively positive case</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Mesa Verde ICE Processing Facility</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Califorina</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>ICE-dedicated</t>
-        </is>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="P79" s="2">
-        <v>44022</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>https://www.davisvanguard.org/2020/06/ice-confirms-medical-provider-at-mesa-verde-detention-center-tests-positive-for-covid-19/</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>Heartbreaking: a 75 year old man with a variety of health conditions was considered too dangerous to release (he was awaiting deportation after serving his sentence for attempted murder). He was put in isolation after a trip to the hospital, and was left unsupervised despite a history of suicide attempts. He died of apparent suicide. https://www.latimes.com/california/story/2020-05-20/immigrant-ice-detention-suicide-coronavirus Hunger strike: https://www.bakersfield.com/news/100-immigrant-detainees-hold-hunger-strike-at-mesa-verde-in-response-to-covid-19-measures/article_4bc2c88e-7b88-11ea-bf82-c3fcec598e57.html Facility response sources: https://www.nbcbayarea.com/investigations/covid-19-outbreaks-may-arise-from-immigrant-detention-centers-doctors-say/2289775/; https://www.latimes.com/california/story/2020-05-20/immigrant-ice-detention-suicide-coronavirus; https://www.bakersfield.com/news/advocates-say-ice-has-released-nearly-all-women-from-mesa-verde/article_09926498-917b-11ea-9352-034bf1e2890b.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Santa Ana City Jail</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Califorina</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Non ICE-dedicated</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Orange County</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>City of Santa Ana</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
       </c>
       <c r="P80" s="2">
         <v>43952</v>
       </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>http://www.tucsonsentinel.com/local/report/040519_ice_detainee_death/man-dies-immigration-detention-facility-florence/</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Death reported from a presumptively positive case</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sherburne County Jail</t>
+          <t>Mesa Verde ICE Processing Facility</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>Califorina</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4523,29 +4501,48 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Non ICE-dedicated</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sherburne County</t>
+          <t>ICE-dedicated</t>
+        </is>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>None reported yet</t>
+        </is>
+      </c>
+      <c r="P81" s="2">
+        <v>44022</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>https://www.davisvanguard.org/2020/06/ice-confirms-medical-provider-at-mesa-verde-detention-center-tests-positive-for-covid-19/</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>started hunger strike https://peoplesworld.org/article/while-minneapolis-burned-immigrant-prisoners-in-sherburne-county-jail-started-hunger-strike/</t>
+          <t>Heartbreaking: a 75 year old man with a variety of health conditions was considered too dangerous to release (he was awaiting deportation after serving his sentence for attempted murder). He was put in isolation after a trip to the hospital, and was left unsupervised despite a history of suicide attempts. He died of apparent suicide. https://www.latimes.com/california/story/2020-05-20/immigrant-ice-detention-suicide-coronavirus Hunger strike: https://www.bakersfield.com/news/100-immigrant-detainees-hold-hunger-strike-at-mesa-verde-in-response-to-covid-19-measures/article_4bc2c88e-7b88-11ea-bf82-c3fcec598e57.html Facility response sources: https://www.nbcbayarea.com/investigations/covid-19-outbreaks-may-arise-from-immigrant-detention-centers-doctors-say/2289775/; https://www.latimes.com/california/story/2020-05-20/immigrant-ice-detention-suicide-coronavirus; https://www.bakersfield.com/news/advocates-say-ice-has-released-nearly-all-women-from-mesa-verde/article_09926498-917b-11ea-9352-034bf1e2890b.html</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>T. Don Hutto Residential Center</t>
+          <t>Santa Ana City Jail</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Califorina</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4553,78 +4550,155 @@
           <t>DHS/ICE</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Non ICE-dedicated</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Orange County</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>CoreCivic</t>
-        </is>
-      </c>
-      <c r="I82">
-        <v>1</v>
+          <t>City of Santa Ana</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>None reported yet</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>None reported yet</t>
         </is>
       </c>
       <c r="P82" s="2">
-        <v>43991</v>
+        <v>43952</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>Sherburne County Jail</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Non ICE-dedicated</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sherburne County</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>started hunger strike https://peoplesworld.org/article/while-minneapolis-burned-immigrant-prisoners-in-sherburne-county-jail-started-hunger-strike/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>T. Don Hutto Residential Center</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>CoreCivic</t>
+        </is>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P84" s="2">
+        <v>43991</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>Yuba County Jail</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Califorina</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>DHS/ICE</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>Non ICE-dedicated</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>Yuba County</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>Yuba County Sheriff's Department</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>None reported yet</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>None reported yet</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
         <is>
           <t>As of 3/23/2020, suspended visitation (still allow legal representation visits).</t>
         </is>
       </c>
-      <c r="P83" s="2">
+      <c r="P85" s="2">
         <v>43952</v>
       </c>
-      <c r="R83" t="inlineStr">
+      <c r="R85" t="inlineStr">
         <is>
           <t>Sources for facility response: https://www.davisvanguard.org/2020/04/guest-commentary-recipe-for-disaster-unmasking-yuba-county-jails-response-to-covid-19/#</t>
         </is>
@@ -4862,13 +4936,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E65FFAF8-3D5F-4B7E-93BC-BA82F8C50B71}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59EEF06D-8D74-4187-992E-E6808A70AAE1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F5EF1B3-2397-435A-A8E6-C922E4D251D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{921E5784-37E8-4EBC-AB86-CFE23CF73250}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67E3C9C2-134D-41DC-B0E1-C5623993C086}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C74587C3-DC15-443C-A7EF-D2A9DCE3D409}"/>
 </file>
--- a/Immigration Facility Counts/COVID-19_Immigration_Detention_Facilities.xlsx
+++ b/Immigration Facility Counts/COVID-19_Immigration_Detention_Facilities.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,27 +414,27 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Confirmed Deaths - ICE DATA (Detainees)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>TOTAL Confirmed Cases - ICE DATA (Detainees)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Confirmed Cases - ICE DATA (Staff)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Confirmed Deaths - ICE DATA (Staff)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Confirmed Cases - OUTSIDE SOURCES (Staff)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Confirmed Cases - ICE DATA (Staff)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Confirmed Deaths (Detainees)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Confirmed Deaths (Staff)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -477,7 +477,10 @@
       <c r="I2">
         <v>2</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -505,7 +508,10 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -548,16 +554,14 @@
         </is>
       </c>
       <c r="I4">
-        <v>13</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
       <c r="P4" s="2">
@@ -606,16 +610,14 @@
         </is>
       </c>
       <c r="I5">
-        <v>13</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>20</t>
         </is>
       </c>
       <c r="P5" s="2">
@@ -664,20 +666,20 @@
         </is>
       </c>
       <c r="I6">
-        <v>66</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>124</t>
+        <v>70</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>128</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
-      </c>
-      <c r="M6">
-        <v>1</v>
       </c>
       <c r="P6" s="2">
         <v>44033</v>
@@ -722,7 +724,10 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -785,14 +790,12 @@
       <c r="I8">
         <v>6</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P8" s="2">
@@ -841,14 +844,12 @@
       <c r="I9">
         <v>2</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P9" s="2">
@@ -904,14 +905,12 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P10" s="2">
@@ -957,7 +956,10 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>49</t>
         </is>
@@ -1005,14 +1007,12 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P12" s="2">
@@ -1058,14 +1058,12 @@
       <c r="I13">
         <v>6</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>51</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P13" s="2">
@@ -1114,16 +1112,14 @@
         </is>
       </c>
       <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>291</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>292</t>
         </is>
       </c>
       <c r="P14" s="2">
@@ -1174,14 +1170,12 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P15" s="2">
@@ -1225,16 +1219,14 @@
         </is>
       </c>
       <c r="I16">
-        <v>16</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>64</t>
         </is>
       </c>
       <c r="P16" s="2">
@@ -1270,7 +1262,10 @@
       <c r="I17">
         <v>12</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1323,7 +1318,10 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>55</t>
         </is>
@@ -1384,18 +1382,21 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="K19">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N19">
         <v>2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
       </c>
       <c r="P19" s="2">
         <v>44033</v>
@@ -1441,14 +1442,12 @@
       <c r="I20">
         <v>3</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P20" s="2">
@@ -1489,14 +1488,12 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>48</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P21" s="2">
@@ -1542,14 +1539,12 @@
       <c r="I22">
         <v>3</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P22" s="2">
@@ -1593,11 +1588,14 @@
         </is>
       </c>
       <c r="I23">
-        <v>22</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>155</t>
+        <v>23</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>156</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1656,14 +1654,12 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>142</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P24" s="2">
@@ -1699,14 +1695,12 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>55</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P25" s="2">
@@ -1752,7 +1746,10 @@
       <c r="I26">
         <v>18</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -1805,14 +1802,12 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P27" s="2">
@@ -1863,18 +1858,13 @@
       <c r="I28">
         <v>6</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>47</t>
         </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="M28">
-        <v>1</v>
       </c>
       <c r="P28" s="2">
         <v>44033</v>
@@ -1922,20 +1912,18 @@
         </is>
       </c>
       <c r="I29">
-        <v>4</v>
-      </c>
-      <c r="J29" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>206</t>
         </is>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>3</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
       </c>
       <c r="P29" s="2">
         <v>44033</v>
@@ -1985,7 +1973,10 @@
       <c r="I30">
         <v>2</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -2028,7 +2019,7 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2061,7 +2052,7 @@
       <c r="I32">
         <v>2</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -2112,16 +2103,11 @@
         </is>
       </c>
       <c r="I33">
-        <v>8</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
+        <v>9</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>36</t>
         </is>
       </c>
       <c r="P33" s="2">
@@ -2162,13 +2148,13 @@
       <c r="I34">
         <v>11</v>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="M34">
+      <c r="J34">
         <v>1</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
       </c>
       <c r="P34" s="2">
         <v>44033</v>
@@ -2216,11 +2202,14 @@
         </is>
       </c>
       <c r="I35">
-        <v>57</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>91</t>
+        <v>67</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>101</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2261,7 +2250,10 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2301,14 +2293,12 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>36</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2362,11 +2352,14 @@
         </is>
       </c>
       <c r="I38">
-        <v>17</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>92</t>
+        <v>20</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>90</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2417,14 +2410,12 @@
       <c r="I39">
         <v>11</v>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>113</t>
         </is>
       </c>
       <c r="P39" s="2">
@@ -2475,7 +2466,10 @@
       <c r="I40">
         <v>20</v>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>21</t>
         </is>
@@ -2513,9 +2507,12 @@
       <c r="I41">
         <v>3</v>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
       <c r="P41" s="2">
@@ -2556,14 +2553,12 @@
       <c r="I42">
         <v>8</v>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P42" s="2">
@@ -2609,7 +2604,10 @@
       <c r="I43">
         <v>3</v>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -2672,14 +2670,12 @@
       <c r="I44">
         <v>32</v>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>65</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P44" s="2">
@@ -2730,14 +2726,12 @@
       <c r="I45">
         <v>4</v>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>69</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P45" s="2">
@@ -2788,14 +2782,12 @@
       <c r="I46">
         <v>7</v>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P46" s="2">
@@ -2846,14 +2838,12 @@
       <c r="I47">
         <v>16</v>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>139</t>
         </is>
       </c>
       <c r="P47" s="2">
@@ -2899,7 +2889,10 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -2952,7 +2945,10 @@
       <c r="I49">
         <v>5</v>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>14</t>
         </is>
@@ -2962,7 +2958,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="N49">
+      <c r="M49">
         <v>4</v>
       </c>
       <c r="P49" s="2">
@@ -3013,7 +3009,10 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -3066,7 +3065,10 @@
       <c r="I51">
         <v>5</v>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -3119,14 +3121,12 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P52" s="2">
@@ -3172,14 +3172,12 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P53" s="2">
@@ -3238,21 +3236,24 @@
       <c r="I54">
         <v>35</v>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>252</t>
         </is>
       </c>
-      <c r="K54">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
         <v>128</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N54">
-        <v>1</v>
       </c>
       <c r="P54" s="2">
         <v>44033</v>
@@ -3310,7 +3311,10 @@
       <c r="I55">
         <v>12</v>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>48</t>
         </is>
@@ -3369,16 +3373,14 @@
         <v>78</v>
       </c>
       <c r="I56">
-        <v>6</v>
-      </c>
-      <c r="J56" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>105</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P56" s="2">
@@ -3425,14 +3427,12 @@
       <c r="I57">
         <v>5</v>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P57" s="2">
@@ -3463,7 +3463,10 @@
       <c r="I58">
         <v>30</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>32</t>
         </is>
@@ -3491,7 +3494,10 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3527,11 +3533,14 @@
         </is>
       </c>
       <c r="I60">
-        <v>4</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>4</t>
+        <v>8</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
       <c r="P60" s="2">
@@ -3555,11 +3564,14 @@
         </is>
       </c>
       <c r="I61">
-        <v>22</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>42</t>
+        <v>27</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>47</t>
         </is>
       </c>
       <c r="P61" s="2">
@@ -3606,11 +3618,14 @@
         <v>216</v>
       </c>
       <c r="I62">
-        <v>13</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>100</t>
+        <v>26</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>120</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3667,14 +3682,12 @@
       <c r="I63">
         <v>80</v>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>129</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P63" s="2">
@@ -3713,16 +3726,14 @@
         </is>
       </c>
       <c r="I64">
-        <v>10</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
+        <v>11</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
       <c r="P64" s="2">
@@ -3773,14 +3784,12 @@
       <c r="I65">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P65" s="2">
@@ -3834,7 +3843,10 @@
       <c r="I66">
         <v>3</v>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>169</t>
         </is>
@@ -3843,9 +3855,6 @@
         <is>
           <t>11</t>
         </is>
-      </c>
-      <c r="M66">
-        <v>1</v>
       </c>
       <c r="P66" s="2">
         <v>44033</v>
@@ -3891,7 +3900,10 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -3939,14 +3951,12 @@
       <c r="I68">
         <v>4</v>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>8</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P68" s="2">
@@ -3982,14 +3992,12 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P69" s="2">
@@ -4033,16 +4041,14 @@
         </is>
       </c>
       <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
       <c r="P70" s="2">
@@ -4088,14 +4094,12 @@
       <c r="I71">
         <v>268</v>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>315</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P71" s="2">
@@ -4114,11 +4118,14 @@
         </is>
       </c>
       <c r="I72">
-        <v>20</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>20</t>
+        <v>3</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="P72" s="2">
@@ -4161,14 +4168,9 @@
           <t>Ada County Sheriff's Office</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
         </is>
       </c>
       <c r="P73" s="2">
@@ -4204,14 +4206,9 @@
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>36</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -4254,9 +4251,15 @@
           <t>Butler County</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4302,9 +4305,9 @@
       <c r="I76">
         <v>3</v>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>15</t>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>16</t>
         </is>
       </c>
       <c r="P76" s="2">
@@ -4342,12 +4345,7 @@
           <t>CoreCivic</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>None reported yet</t>
         </is>
@@ -4375,7 +4373,7 @@
       <c r="I78">
         <v>4</v>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -4415,12 +4413,7 @@
           <t>BOP</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>None reported yet</t>
         </is>
@@ -4456,18 +4449,13 @@
           <t>Pinal County</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>None reported yet</t>
         </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="M80">
-        <v>1</v>
       </c>
       <c r="P80" s="2">
         <v>43952</v>
@@ -4507,18 +4495,16 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K81">
+      <c r="N81">
         <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
       </c>
       <c r="P81" s="2">
         <v>44022</v>
@@ -4565,16 +4551,6 @@
           <t>City of Santa Ana</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
       <c r="P82" s="2">
         <v>43952</v>
       </c>
@@ -4633,11 +4609,14 @@
         </is>
       </c>
       <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -4680,16 +4659,6 @@
           <t>Yuba County Sheriff's Department</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>None reported yet</t>
-        </is>
-      </c>
       <c r="O85" t="inlineStr">
         <is>
           <t>As of 3/23/2020, suspended visitation (still allow legal representation visits).</t>
@@ -4701,248 +4670,48 @@
       <c r="R85" t="inlineStr">
         <is>
           <t>Sources for facility response: https://www.davisvanguard.org/2020/04/guest-commentary-recipe-for-disaster-unmasking-yuba-county-jails-response-to-covid-19/#</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Linn County Jail</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Iowa</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>DHS/ICE</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Non ICE-dedicated</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Linn County</t>
+        </is>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="P86" s="2">
+        <v>44036</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>https://littlevillagemag.com/first-inmate-at-linn-county-jail-tests-positive-for-covid-19/</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051E0680B92C32A4BA570E67EC69CADAB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b543824e0d0efda384fe7e90684491c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="decd7d76-ebaa-4206-97b5-2f3f55aa59b2" xmlns:ns3="5adaec23-4d3a-444a-8df2-cdc77892727c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e549fe9afa7e302c856fa33d7078cb81" ns2:_="" ns3:_="">
-    <xsd:import namespace="decd7d76-ebaa-4206-97b5-2f3f55aa59b2"/>
-    <xsd:import namespace="5adaec23-4d3a-444a-8df2-cdc77892727c"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="decd7d76-ebaa-4206-97b5-2f3f55aa59b2" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5adaec23-4d3a-444a-8df2-cdc77892727c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59EEF06D-8D74-4187-992E-E6808A70AAE1}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{921E5784-37E8-4EBC-AB86-CFE23CF73250}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C74587C3-DC15-443C-A7EF-D2A9DCE3D409}"/>
 </file>